--- a/tests/materials/UrFGR/UrFGR.xlsx
+++ b/tests/materials/UrFGR/UrFGR.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="-18460" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="10220" yWindow="-18460" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fissiongas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>burnup</t>
   </si>
@@ -100,17 +104,103 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Fission rate</t>
+  </si>
+  <si>
+    <t>fsn/sec</t>
+  </si>
+  <si>
+    <t>d(Bu)</t>
+  </si>
+  <si>
+    <t>fission rate</t>
+  </si>
+  <si>
+    <t>Temp [K]</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>BU_free_low</t>
+  </si>
+  <si>
+    <t>BU_free_mid</t>
+  </si>
+  <si>
+    <t>BU_free_high</t>
+  </si>
+  <si>
+    <t>which bu</t>
+  </si>
+  <si>
+    <t>f_burnup</t>
+  </si>
+  <si>
+    <t>f_temp_low</t>
+  </si>
+  <si>
+    <t>f_temp_mid</t>
+  </si>
+  <si>
+    <t>f_temp_hi</t>
+  </si>
+  <si>
+    <t>which f_temp</t>
+  </si>
+  <si>
+    <t>f_rel</t>
+  </si>
+  <si>
+    <t>g_rel</t>
+  </si>
+  <si>
+    <t>g_add</t>
+  </si>
+  <si>
+    <t>g_ratio</t>
+  </si>
+  <si>
+    <t>exceeds?</t>
+  </si>
+  <si>
+    <t>g_gen</t>
+  </si>
+  <si>
+    <t>del(g_gen)</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>center_temp</t>
+  </si>
+  <si>
+    <t>BUCK gas_gen</t>
+  </si>
+  <si>
+    <t>EXCEL gas_gen</t>
+  </si>
+  <si>
+    <t>BUCK gas_rel</t>
+  </si>
+  <si>
+    <t>EXCEL gas_rel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="176" formatCode="0.0000E+00;\_x0000_"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0000E+00;\_x0000_"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,7 +208,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,12 +229,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,7 +258,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,18 +284,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -207,6 +334,16 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -219,6 +356,16 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2086953496"/>
-        <c:axId val="-2081159208"/>
+        <c:axId val="-2139751320"/>
+        <c:axId val="-2111473384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2086953496"/>
+        <c:axId val="-2139751320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,12 +621,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081159208"/>
+        <c:crossAx val="-2111473384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081159208"/>
+        <c:axId val="-2111473384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086953496"/>
+        <c:crossAx val="-2139751320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -647,11 +794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081151992"/>
-        <c:axId val="-2087669464"/>
+        <c:axId val="-2111641368"/>
+        <c:axId val="-2111601608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081151992"/>
+        <c:axId val="-2111641368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,12 +808,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087669464"/>
+        <c:crossAx val="-2111601608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2087669464"/>
+        <c:axId val="-2111601608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081151992"/>
+        <c:crossAx val="-2111641368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -757,6 +904,185 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="swelling"/>
+      <sheetName val="swelling units"/>
+      <sheetName val="fissiongas"/>
+      <sheetName val="fsngas units"/>
+      <sheetName val="creep units"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="Q6" t="str">
+            <v>g_rel</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+          <cell r="Q8">
+            <v>1.3567577350800614E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>0.01</v>
+          </cell>
+          <cell r="Q9">
+            <v>7.2996944353208035E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="Q10">
+            <v>1.7777408583996294E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>0.02</v>
+          </cell>
+          <cell r="Q11">
+            <v>3.2739010756800857E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>2.5000000000000001E-2</v>
+          </cell>
+          <cell r="Q12">
+            <v>5.213411883894091E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>3.0000000000000002E-2</v>
+          </cell>
+          <cell r="Q13">
+            <v>7.5912853285112186E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>3.5000000000000003E-2</v>
+          </cell>
+          <cell r="Q14">
+            <v>0.10402583242198742</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>0.04</v>
+          </cell>
+          <cell r="Q15">
+            <v>0.13642416779284677</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.17305945954397833</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>4.9999999999999996E-2</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.17419152965793419</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>5.4999999999999993E-2</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.17543749410839429</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>5.9999999999999991E-2</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.17679650188311988</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>6.4999999999999988E-2</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.17826770832858893</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>6.9999999999999993E-2</v>
+          </cell>
+          <cell r="Q21">
+            <v>0.58064806062490237</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.66510810425642786</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>0.08</v>
+          </cell>
+          <cell r="Q23">
+            <v>0.75495691038940782</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>8.5000000000000006E-2</v>
+          </cell>
+          <cell r="Q24">
+            <v>0.85013296228160695</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>9.0000000000000011E-2</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.95057536163582157</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1083,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="F45" sqref="F45:M56"/>
     </sheetView>
   </sheetViews>
@@ -1244,7 +1570,7 @@
         <v>4.1514447027565587E-4</v>
       </c>
       <c r="K9" s="3">
-        <f>K8+J9</f>
+        <f t="shared" ref="K9:K18" si="5">K8+J9</f>
         <v>4.1514447027565587E-4</v>
       </c>
       <c r="L9" s="2">
@@ -1260,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" ref="P9:P18" si="5">N9/G9</f>
+        <f t="shared" ref="P9:P18" si="6">N9/G9</f>
         <v>0</v>
       </c>
     </row>
@@ -1289,27 +1615,27 @@
         <v>0.32130657045487254</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:J18" si="6">$J$3*$J$2/6.022E+23*$J$1</f>
+        <f t="shared" ref="J10:J18" si="7">$J$3*$J$2/6.022E+23*$J$1</f>
         <v>4.1514447027565587E-4</v>
       </c>
       <c r="K10" s="3">
-        <f>K9+J10</f>
+        <f t="shared" si="5"/>
         <v>8.3028894055131174E-4</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ref="L10:L18" si="7">F10*G10</f>
+        <f t="shared" ref="L10:L18" si="8">F10*G10</f>
         <v>0.13009883010326231</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M10:M18" si="8">IF(G10&gt;N9,L10*K10,G10*J10+M9)</f>
+        <f t="shared" ref="M10:M18" si="9">IF(G10&gt;N9,L10*K10,G10*J10+M9)</f>
         <v>1.0801961981340277E-4</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" ref="N10:N18" si="9">M10/K10</f>
+        <f t="shared" ref="N10:N18" si="10">M10/K10</f>
         <v>0.13009883010326231</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44431294838362995</v>
       </c>
     </row>
@@ -1338,27 +1664,27 @@
         <v>0.32130657045487254</v>
       </c>
       <c r="J11" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2454334108269677E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="8"/>
+        <v>0.25650345373316275</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="9"/>
+        <v>3.194579712717902E-4</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25650345373316275</v>
+      </c>
+      <c r="P11" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K11" s="3">
-        <f>K10+J11</f>
-        <v>1.2454334108269677E-3</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="7"/>
-        <v>0.25650345373316275</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" si="8"/>
-        <v>3.194579712717902E-4</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="9"/>
-        <v>0.25650345373316275</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="5"/>
         <v>0.87600945918043061</v>
       </c>
     </row>
@@ -1387,27 +1713,27 @@
         <v>0.32130657045487254</v>
       </c>
       <c r="J12" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="5"/>
+        <v>1.6605778811026235E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="8"/>
+        <v>0.28470813764720437</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="9"/>
+        <v>4.727800359468687E-4</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="10"/>
+        <v>0.28470813764720437</v>
+      </c>
+      <c r="P12" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K12" s="3">
-        <f>K11+J12</f>
-        <v>1.6605778811026235E-3</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="7"/>
-        <v>0.28470813764720437</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" si="8"/>
-        <v>4.727800359468687E-4</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="9"/>
-        <v>0.28470813764720437</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="5"/>
         <v>0.97233397077003891</v>
       </c>
     </row>
@@ -1436,27 +1762,27 @@
         <v>0.32130657045487254</v>
       </c>
       <c r="J13" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0757223513782792E-3</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="8"/>
+        <v>0.2910014532858804</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0403822086906413E-4</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.2910014532858804</v>
+      </c>
+      <c r="P13" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K13" s="3">
-        <f>K12+J13</f>
-        <v>2.0757223513782792E-3</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="7"/>
-        <v>0.2910014532858804</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" si="8"/>
-        <v>6.0403822086906413E-4</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="9"/>
-        <v>0.2910014532858804</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="5"/>
         <v>0.99382687446724782</v>
       </c>
     </row>
@@ -1485,27 +1811,27 @@
         <v>0.40732265085999586</v>
       </c>
       <c r="J14" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.490866821653935E-3</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38594217741745218</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="9"/>
+        <v>9.6133056480600821E-4</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="10"/>
+        <v>0.38594217741745218</v>
+      </c>
+      <c r="P14" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K14" s="3">
-        <f>K13+J14</f>
-        <v>2.490866821653935E-3</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.38594217741745218</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" si="8"/>
-        <v>9.6133056480600821E-4</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="9"/>
-        <v>0.38594217741745218</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="5"/>
         <v>0.99930912386156778</v>
       </c>
     </row>
@@ -1534,27 +1860,27 @@
         <v>0.40732265085999586</v>
       </c>
       <c r="J15" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9060112919295908E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="8"/>
+        <v>0.38614946383442489</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="9"/>
+        <v>1.1221547022753958E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="10"/>
+        <v>0.38614946383442489</v>
+      </c>
+      <c r="P15" s="1">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K15" s="3">
-        <f>K14+J15</f>
-        <v>2.9060112919295908E-3</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="7"/>
-        <v>0.38614946383442489</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1221547022753958E-3</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="9"/>
-        <v>0.38614946383442489</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="5"/>
         <v>0.99984584469658899</v>
       </c>
     </row>
@@ -1583,27 +1909,27 @@
         <v>0.27424463286033518</v>
       </c>
       <c r="J16" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3211557622052465E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="8"/>
+        <v>0.24608516917749096</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2243254927104671E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="10"/>
+        <v>0.36864440585512176</v>
+      </c>
+      <c r="P16" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K16" s="3">
-        <f>K15+J16</f>
-        <v>3.3211557622052465E-3</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="7"/>
-        <v>0.24608516917749096</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2243254927104671E-3</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="9"/>
-        <v>0.36864440585512176</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="5"/>
         <v>1.4978907957657859</v>
       </c>
     </row>
@@ -1632,27 +1958,27 @@
         <v>0.27424463286033518</v>
       </c>
       <c r="J17" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="5"/>
+        <v>3.7363002324809023E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
+        <v>0.24610368262475707</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3264962831455384E-3</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="10"/>
+        <v>0.35502936076010821</v>
+      </c>
+      <c r="P17" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K17" s="3">
-        <f>K16+J17</f>
-        <v>3.7363002324809023E-3</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="7"/>
-        <v>0.24610368262475707</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3264962831455384E-3</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="9"/>
-        <v>0.35502936076010821</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="5"/>
         <v>1.4425695962362541</v>
       </c>
     </row>
@@ -1681,27 +2007,27 @@
         <v>0.27424463286033518</v>
       </c>
       <c r="J18" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565585E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>0.24610781353321046</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4286670735806097E-3</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="10"/>
+        <v>0.34413732468409736</v>
+      </c>
+      <c r="P18" s="2">
         <f t="shared" si="6"/>
-        <v>4.1514447027565587E-4</v>
-      </c>
-      <c r="K18" s="3">
-        <f>K17+J18</f>
-        <v>4.1514447027565585E-3</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.24610781353321046</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4286670735806097E-3</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="9"/>
-        <v>0.34413732468409736</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="5"/>
         <v>1.3983126366126286</v>
       </c>
     </row>
@@ -1791,11 +2117,11 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3">
-        <f t="shared" ref="N28:N37" si="10">ABS(K28-K9)/K9*100</f>
+        <f t="shared" ref="N28:N37" si="11">ABS(K28-K9)/K9*100</f>
         <v>7.1600000150140114E-6</v>
       </c>
       <c r="O28" s="3" t="e">
-        <f>ABS(L28-M9)/M9*100</f>
+        <f t="shared" ref="O28:O37" si="12">ABS(L28-M9)/M9*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1817,11 +2143,11 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8839999890930652E-6</v>
       </c>
       <c r="O29" s="3">
-        <f>ABS(L29-M10)/M10*100</f>
+        <f t="shared" si="12"/>
         <v>1.8342411138704429E-5</v>
       </c>
     </row>
@@ -1843,11 +2169,11 @@
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2986666660990198E-5</v>
       </c>
       <c r="O30" s="3">
-        <f>ABS(L30-M11)/M11*100</f>
+        <f t="shared" si="12"/>
         <v>8.992797923410384E-6</v>
       </c>
     </row>
@@ -1869,11 +2195,11 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1600000150140114E-6</v>
       </c>
       <c r="O31" s="3">
-        <f>ABS(L31-M12)/M12*100</f>
+        <f t="shared" si="12"/>
         <v>7.603296661908648E-6</v>
       </c>
     </row>
@@ -1895,11 +2221,11 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6927999985365264E-5</v>
       </c>
       <c r="O32" s="3">
-        <f>ABS(L32-M13)/M13*100</f>
+        <f t="shared" si="12"/>
         <v>3.4549244500982559E-6</v>
       </c>
     </row>
@@ -1921,11 +2247,11 @@
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1600000193667223E-6</v>
       </c>
       <c r="O33" s="3">
-        <f>ABS(L33-M14)/M14*100</f>
+        <f t="shared" si="12"/>
         <v>3.6609666962126621E-6</v>
       </c>
     </row>
@@ -1947,11 +2273,11 @@
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0045714259778501E-5</v>
       </c>
       <c r="O34" s="3">
-        <f>ABS(L34-M15)/M15*100</f>
+        <f t="shared" si="12"/>
         <v>2.6531511518079264E-5</v>
       </c>
     </row>
@@ -1973,11 +2299,11 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1600000280721432E-6</v>
       </c>
       <c r="O35" s="3">
-        <f>ABS(L35-M16)/M16*100</f>
+        <f t="shared" si="12"/>
         <v>4.0243421375903294E-5</v>
       </c>
     </row>
@@ -1999,11 +2325,11 @@
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2222221900080787E-6</v>
       </c>
       <c r="O36" s="3">
-        <f>ABS(L36-M17)/M17*100</f>
+        <f t="shared" si="12"/>
         <v>2.1345369910204955E-5</v>
       </c>
     </row>
@@ -2025,11 +2351,11 @@
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.16000002284889E-6</v>
       </c>
       <c r="O37" s="3">
-        <f>ABS(L37-M18)/M18*100</f>
+        <f t="shared" si="12"/>
         <v>5.1502978590904221E-6</v>
       </c>
     </row>
@@ -2081,31 +2407,31 @@
         <v>26</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G55" si="11">I27</f>
+        <f t="shared" ref="G46:G55" si="13">I27</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46:H55" si="12">K27</f>
+        <f t="shared" ref="H46:H55" si="14">K27</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" ref="I46:I55" si="13">K8</f>
+        <f t="shared" ref="I46:I55" si="15">K8</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" ref="J46:J55" si="14">N27</f>
+        <f t="shared" ref="J46:J55" si="16">N27</f>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" ref="K46:K55" si="15">L27</f>
+        <f t="shared" ref="K46:K55" si="17">L27</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:L55" si="16">M8</f>
+        <f t="shared" ref="L46:L55" si="18">M8</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:M55" si="17">O27</f>
+        <f t="shared" ref="M46:M55" si="19">O27</f>
         <v>0</v>
       </c>
     </row>
@@ -2114,27 +2440,27 @@
         <v>26</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.151445E-4</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.1514447027565587E-4</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1600000150140114E-6</v>
       </c>
       <c r="K47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M47">
@@ -2146,31 +2472,31 @@
         <v>26</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.02</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.3028889999999997E-4</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.3028894055131174E-4</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8839999890930652E-6</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.080196E-4</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0801961981340277E-4</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.8342411138704429E-5</v>
       </c>
     </row>
@@ -2179,31 +2505,31 @@
         <v>26</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.03</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.245433E-3</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2454334108269677E-3</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.2986666660990198E-5</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.19458E-4</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.194579712717902E-4</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.992797923410384E-6</v>
       </c>
     </row>
@@ -2212,31 +2538,31 @@
         <v>26</v>
       </c>
       <c r="G50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.660578E-3</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6605778811026235E-3</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1600000150140114E-6</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7278000000000001E-4</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.727800359468687E-4</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.603296661908648E-6</v>
       </c>
     </row>
@@ -2245,31 +2571,31 @@
         <v>26</v>
       </c>
       <c r="G51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.05</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.0757219999999999E-3</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0757223513782792E-3</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.6927999985365264E-5</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0403819999999995E-4</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.0403822086906413E-4</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.4549244500982559E-6</v>
       </c>
     </row>
@@ -2278,31 +2604,31 @@
         <v>26</v>
       </c>
       <c r="G52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4908669999999999E-3</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.490866821653935E-3</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1600000193667223E-6</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.6133060000000003E-4</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.6133056480600821E-4</v>
       </c>
       <c r="M52" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.6609666962126621E-6</v>
       </c>
     </row>
@@ -2311,31 +2637,31 @@
         <v>26</v>
       </c>
       <c r="G53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.906011E-3</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9060112919295908E-3</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0045714259778501E-5</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1221549999999999E-3</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1221547022753958E-3</v>
       </c>
       <c r="M53" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.6531511518079264E-5</v>
       </c>
     </row>
@@ -2344,31 +2670,31 @@
         <v>26</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.321156E-3</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.3211557622052465E-3</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1600000280721432E-6</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2243250000000001E-3</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2243254927104671E-3</v>
       </c>
       <c r="M54" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.0243421375903294E-5</v>
       </c>
     </row>
@@ -2377,31 +2703,31 @@
         <v>26</v>
       </c>
       <c r="G55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.09</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.7363000000000001E-3</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.7363002324809023E-3</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.2222221900080787E-6</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3264959999999999E-3</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3264962831455384E-3</v>
       </c>
       <c r="M55" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.1345369910204955E-5</v>
       </c>
     </row>
@@ -2448,4 +2774,1603 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="16" max="16" width="10.83203125" style="8"/>
+    <col min="19" max="19" width="10.83203125" style="9"/>
+    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1728</v>
+      </c>
+      <c r="G4">
+        <v>2598</v>
+      </c>
+      <c r="K4">
+        <v>1273</v>
+      </c>
+      <c r="L4">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="E5">
+        <v>1728</v>
+      </c>
+      <c r="F5">
+        <v>2598</v>
+      </c>
+      <c r="J5">
+        <v>1273</v>
+      </c>
+      <c r="K5">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <f>$D$1</f>
+        <v>1E+20</v>
+      </c>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>2*0.00112</f>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F7" s="10">
+        <f>(-0.000002576*C7+0.006696)</f>
+        <v>2.8319999999999999E-3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f>IF(C7&lt;$E$5,E7,IF(C7&lt;$F$5,F7,G7))</f>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="I7" s="10">
+        <f>IF(1-EXP(-1.5*(D7-H7))&gt;0,1-EXP(-1.5*(D7-H7)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f>0.000467*C7-0.594</f>
+        <v>0.10650000000000004</v>
+      </c>
+      <c r="L7" s="2">
+        <f>0.7419*LN(0.7675*(C7-273))-4.9685</f>
+        <v>0.11181652766655503</v>
+      </c>
+      <c r="M7" s="2">
+        <f>IF(C7&lt;$J$5,J7,IF(C7&lt;$K$5,K7,L7))</f>
+        <v>0.10650000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <f>I7*M7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B17" si="0">$D$1</f>
+        <v>1E+20</v>
+      </c>
+      <c r="C8">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="2">
+        <f>D7+$D$3</f>
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E17" si="1">2*0.00112</f>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F17" si="2">(-0.000002576*C8+0.006696)</f>
+        <v>2.8319999999999999E-3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f>IF(C8&lt;$E$5,E8,IF(C8&lt;$F$5,F8,G8))</f>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I17" si="3">IF(1-EXP(-1.5*(D8-H8))&gt;0,1-EXP(-1.5*(D8-H8)),0)</f>
+        <v>1.1572517286708273E-2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f>0.000467*C8-0.594</f>
+        <v>0.10650000000000004</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L17" si="4">0.7419*LN(0.7675*(C8-273))-4.9685</f>
+        <v>0.11181652766655503</v>
+      </c>
+      <c r="M8" s="2">
+        <f>IF(C8&lt;$J$5,J8,IF(C8&lt;$K$5,K8,L8))</f>
+        <v>0.10650000000000004</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N17" si="5">B8*$D$2/6.022E+23*10</f>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" ref="O8:O17" si="6">O7+N8</f>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" ref="P8:P17" si="7">I8*M8</f>
+        <v>1.2324730910344315E-3</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>IF(P8&gt;S7,O8*M8*I8,Q7+P8*N8)</f>
+        <v>5.1165438850648922E-7</v>
+      </c>
+      <c r="R8" s="3">
+        <f>R7+P8*N8</f>
+        <v>5.1165438850648922E-7</v>
+      </c>
+      <c r="S8" s="13">
+        <f>Q8/O8</f>
+        <v>1.2324730910344315E-3</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <f>IF(P8&gt;S7,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C9">
+        <v>1900</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D17" si="8">D8+$D$3</f>
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f>IF(C9&lt;$E$5,E9,IF(C9&lt;$F$5,F9,G9))</f>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6928387682177313E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:K17" si="9">0.000467*C9-0.594</f>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32115523268133384</v>
+      </c>
+      <c r="M9" s="2">
+        <f>IF(C9&lt;$J$5,J9,IF(C9&lt;$K$5,K9,L9))</f>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="N9" s="3">
+        <f>B9*$D$2/6.022E+23*10</f>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="6"/>
+        <v>8.3028894055131174E-4</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="7"/>
+        <v>7.8980961071826086E-3</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>IF(P9&gt;S8,O9*M9*I9,Q8+P9*N9)</f>
+        <v>6.557701849205088E-6</v>
+      </c>
+      <c r="R9" s="3">
+        <f>R8+P9*N9</f>
+        <v>3.7905053131090327E-6</v>
+      </c>
+      <c r="S9" s="13">
+        <f>Q9/O9</f>
+        <v>7.8980961071826086E-3</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <f>IF(P9&gt;S8,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C10">
+        <v>1900</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f>IF(C10&lt;$E$5,E10,IF(C10&lt;$F$5,F10,G10))</f>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>4.141553661691022E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32115523268133384</v>
+      </c>
+      <c r="M10" s="2">
+        <f>IF(C10&lt;$J$5,J10,IF(C10&lt;$K$5,K10,L10))</f>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2454334108269677E-3</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="7"/>
+        <v>1.2147176889739772E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>IF(P10&gt;S9,O10*M10*I10,Q9+P10*N10)</f>
+        <v>1.5128499945707122E-5</v>
+      </c>
+      <c r="R10" s="3">
+        <f>R9+P10*N10</f>
+        <v>8.8333386283447387E-6</v>
+      </c>
+      <c r="S10" s="13">
+        <f>Q10/O10</f>
+        <v>1.2147176889739772E-2</v>
+      </c>
+      <c r="T10" s="3" t="b">
+        <f>IF(P10&gt;S9,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C11">
+        <v>1900</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f>IF(C11&lt;$E$5,E11,IF(C11&lt;$F$5,F11,G11))</f>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>5.5687000003323495E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32115523268133384</v>
+      </c>
+      <c r="M11" s="2">
+        <f>IF(C11&lt;$J$5,J11,IF(C11&lt;$K$5,K11,L11))</f>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6605778811026235E-3</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="7"/>
+        <v>1.6332997100974786E-2</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>IF(P11&gt;S10,O11*M11*I11,Q10+P11*N11)</f>
+        <v>2.7122213717992006E-5</v>
+      </c>
+      <c r="R11" s="3">
+        <f>R10+P11*N11</f>
+        <v>1.5613892057842739E-5</v>
+      </c>
+      <c r="S11" s="13">
+        <f>Q11/O11</f>
+        <v>1.6332997100974789E-2</v>
+      </c>
+      <c r="T11" s="3" t="b">
+        <f>IF(P11&gt;S10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C12">
+        <v>1900</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f>IF(C12&lt;$E$5,E12,IF(C12&lt;$F$5,F12,G12))</f>
+        <v>1.8015999999999996E-3</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>6.974598898088713E-2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32115523268133384</v>
+      </c>
+      <c r="M12" s="2">
+        <f>IF(C12&lt;$J$5,J12,IF(C12&lt;$K$5,K12,L12))</f>
+        <v>0.29330000000000012</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0757223513782792E-3</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0456498568094204E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>IF(P12&gt;S11,O12*M12*I12,Q11+P12*N12)</f>
+        <v>4.2462011308730896E-5</v>
+      </c>
+      <c r="R12" s="3">
+        <f>R11+P12*N12</f>
+        <v>2.4106294319588919E-5</v>
+      </c>
+      <c r="S12" s="13">
+        <f>Q12/O12</f>
+        <v>2.04564985680942E-2</v>
+      </c>
+      <c r="T12" s="3" t="b">
+        <f>IF(P12&gt;S11,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C13">
+        <v>2100</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2864E-3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f>IF(C13&lt;$E$5,E13,IF(C13&lt;$F$5,F13,G13))</f>
+        <v>1.2864E-3</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="3"/>
+        <v>8.4303590573120202E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="9"/>
+        <v>0.38670000000000004</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40716922621237295</v>
+      </c>
+      <c r="M13" s="2">
+        <f>IF(C13&lt;$J$5,J13,IF(C13&lt;$K$5,K13,L13))</f>
+        <v>0.38670000000000004</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="6"/>
+        <v>2.490866821653935E-3</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="7"/>
+        <v>3.2600198474625586E-2</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>IF(P13&gt;S12,O13*M13*I13,Q12+P13*N13)</f>
+        <v>8.1202752759778094E-5</v>
+      </c>
+      <c r="R13" s="3">
+        <f>R12+P13*N13</f>
+        <v>3.7640086446218604E-5</v>
+      </c>
+      <c r="S13" s="13">
+        <f>Q13/O13</f>
+        <v>3.2600198474625586E-2</v>
+      </c>
+      <c r="T13" s="3" t="b">
+        <f>IF(P13&gt;S12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C14">
+        <v>2100</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="8"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2864E-3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f>IF(C14&lt;$E$5,E14,IF(C14&lt;$F$5,F14,G14))</f>
+        <v>1.2864E-3</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="3"/>
+        <v>9.7936534021926258E-2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="9"/>
+        <v>0.38670000000000004</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40716922621237295</v>
+      </c>
+      <c r="M14" s="2">
+        <f>IF(C14&lt;$J$5,J14,IF(C14&lt;$K$5,K14,L14))</f>
+        <v>0.38670000000000004</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9060112919295908E-3</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="7"/>
+        <v>3.787205770627889E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>IF(P14&gt;S13,O14*M14*I14,Q13+P14*N14)</f>
+        <v>1.1005662734305553E-4</v>
+      </c>
+      <c r="R14" s="3">
+        <f>R13+P14*N14</f>
+        <v>5.3362461780940826E-5</v>
+      </c>
+      <c r="S14" s="13">
+        <f>Q14/O14</f>
+        <v>3.787205770627889E-2</v>
+      </c>
+      <c r="T14" s="3" t="b">
+        <f>IF(P14&gt;S13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C15">
+        <v>1800</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0591999999999997E-3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f>IF(C15&lt;$E$5,E15,IF(C15&lt;$F$5,F15,G15))</f>
+        <v>2.0591999999999997E-3</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="3"/>
+        <v>0.11033580816394661</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="9"/>
+        <v>0.24660000000000004</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27409443687723378</v>
+      </c>
+      <c r="M15" s="2">
+        <f>IF(C15&lt;$J$5,J15,IF(C15&lt;$K$5,K15,L15))</f>
+        <v>0.24660000000000004</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3211557622052465E-3</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="7"/>
+        <v>2.7208810293229239E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>IF(P15&gt;S14,O15*M15*I15,Q14+P15*N15)</f>
+        <v>1.21352214479069E-4</v>
+      </c>
+      <c r="R15" s="3">
+        <f>R14+P15*N15</f>
+        <v>6.4658048916954299E-5</v>
+      </c>
+      <c r="S15" s="13">
+        <f>Q15/O15</f>
+        <v>3.6539151779647686E-2</v>
+      </c>
+      <c r="T15" s="3" t="b">
+        <f>IF(P15&gt;S14,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C16">
+        <v>1800</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0591999999999997E-3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f>IF(C16&lt;$E$5,E16,IF(C16&lt;$F$5,F16,G16))</f>
+        <v>2.0591999999999997E-3</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="3"/>
+        <v>0.12358118238499427</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="9"/>
+        <v>0.24660000000000004</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27409443687723378</v>
+      </c>
+      <c r="M16" s="2">
+        <f>IF(C16&lt;$J$5,J16,IF(C16&lt;$K$5,K16,L16))</f>
+        <v>0.24660000000000004</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="6"/>
+        <v>3.7363002324809023E-3</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="7"/>
+        <v>3.0475119576139593E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>IF(P16&gt;S15,O16*M16*I16,Q15+P16*N16)</f>
+        <v>1.3400379185209274E-4</v>
+      </c>
+      <c r="R16" s="3">
+        <f>R15+P16*N16</f>
+        <v>7.7309626289978037E-5</v>
+      </c>
+      <c r="S16" s="13">
+        <f>Q16/O16</f>
+        <v>3.5865370423702345E-2</v>
+      </c>
+      <c r="T16" s="3" t="b">
+        <f>IF(P16&gt;S15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="C17">
+        <v>1800</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0591999999999997E-3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f>IF(C17&lt;$E$5,E17,IF(C17&lt;$F$5,F17,G17))</f>
+        <v>2.0591999999999997E-3</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="3"/>
+        <v>0.13662935867465886</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="9"/>
+        <v>0.24660000000000004</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27409443687723378</v>
+      </c>
+      <c r="M17" s="2">
+        <f>IF(C17&lt;$J$5,J17,IF(C17&lt;$K$5,K17,L17))</f>
+        <v>0.24660000000000004</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1514447027565585E-3</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="7"/>
+        <v>3.3692799849170882E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>IF(P17&gt;S16,O17*M17*I17,Q16+P17*N17)</f>
+        <v>1.4799117139758047E-4</v>
+      </c>
+      <c r="R17" s="3">
+        <f>R16+P17*N17</f>
+        <v>9.1297005835465781E-5</v>
+      </c>
+      <c r="S17" s="13">
+        <f>Q17/O17</f>
+        <v>3.5648113366249193E-2</v>
+      </c>
+      <c r="T17" s="3" t="b">
+        <f>IF(P17&gt;S16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4.151445E-4</v>
+      </c>
+      <c r="G25">
+        <v>4.1514447027565587E-4</v>
+      </c>
+      <c r="H25" s="3">
+        <f>ABS(G25-F25)/G25*100</f>
+        <v>7.1600000150140114E-6</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5.1165439999999998E-7</v>
+      </c>
+      <c r="J25">
+        <v>5.1165438850648922E-7</v>
+      </c>
+      <c r="K25" s="3">
+        <f>ABS(J25-I25)/J25*100</f>
+        <v>2.2463426527109356E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8.3028889999999997E-4</v>
+      </c>
+      <c r="G26">
+        <v>8.3028894055131174E-4</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ref="H26:H34" si="10">ABS(G26-F26)/G26*100</f>
+        <v>4.8839999890930652E-6</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6.5577020000000004E-6</v>
+      </c>
+      <c r="J26">
+        <v>6.557701849205088E-6</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" ref="K26:K34" si="11">ABS(J26-I26)/J26*100</f>
+        <v>2.299508514496421E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.245433E-3</v>
+      </c>
+      <c r="G27">
+        <v>1.2454334108269677E-3</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2986666660990198E-5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.5128499999999999E-5</v>
+      </c>
+      <c r="J27">
+        <v>1.5128499945707122E-5</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5887812731331191E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.660578E-3</v>
+      </c>
+      <c r="G28">
+        <v>1.6605778811026235E-3</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="10"/>
+        <v>7.1600000150140114E-6</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2.712221E-5</v>
+      </c>
+      <c r="J28">
+        <v>2.7122213717992006E-5</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="11"/>
+        <v>1.3708291087548286E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.0757219999999999E-3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.0757223513782792E-3</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6927999985365264E-5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4.2462010000000002E-5</v>
+      </c>
+      <c r="J29">
+        <v>4.2462011308730896E-5</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0821217702958268E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2.4908669999999999E-3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.490866821653935E-3</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="10"/>
+        <v>7.1600000193667223E-6</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8.1202749999999998E-5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>8.1202752759778094E-5</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3986262816253398E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.906011E-3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.9060112919295908E-3</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0045714259778501E-5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.1005660000000001E-4</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1.1005662734305553E-4</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="11"/>
+        <v>2.4844533388962011E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.321156E-3</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.3211557622052465E-3</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="10"/>
+        <v>7.1600000280721432E-6</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.213522E-4</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.21352214479069E-4</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1931441928066385E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.7363000000000001E-3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3.7363002324809023E-3</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="10"/>
+        <v>6.2222221900080787E-6</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.340038E-4</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.3400379185209274E-4</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="11"/>
+        <v>6.0803557492449218E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.1514450000000001E-3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4.1514447027565585E-3</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="10"/>
+        <v>7.16000002284889E-6</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.479912E-4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.4799117139758047E-4</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="11"/>
+        <v>1.9327112058187321E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="G43" s="3">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4.151445E-4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>5.1165439999999998E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="G44" s="3">
+        <v>20</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8.3028889999999997E-4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6.5577020000000004E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="G45" s="3">
+        <v>30</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1.245433E-3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1.5128499999999999E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="G46" s="3">
+        <v>40</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1.660578E-3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.712221E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="G47" s="3">
+        <v>50</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2.0757219999999999E-3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4.2462010000000002E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="G48" s="3">
+        <v>60</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2.4908669999999999E-3</v>
+      </c>
+      <c r="K48" s="3">
+        <v>8.1202749999999998E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11">
+      <c r="G49" s="3">
+        <v>70</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2.906011E-3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1.1005660000000001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11">
+      <c r="G50" s="3">
+        <v>80</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3.321156E-3</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1.213522E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11">
+      <c r="G51" s="3">
+        <v>90</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J51" s="3">
+        <v>3.7363000000000001E-3</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1.340038E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4.1514450000000001E-3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1.479912E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>